--- a/1_semester/Moduls/Приложение/PickUpPoint.xlsx
+++ b/1_semester/Moduls/Приложение/PickUpPoint.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DFBA6-2C06-45A3-8626-C6BBE638E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="PickUpPoint" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -153,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -306,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -500,26 +494,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -527,7 +521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,7 +529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -543,7 +537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,7 +545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,7 +553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -567,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -575,7 +569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -583,7 +577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -591,7 +585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -599,7 +593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -607,7 +601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -615,7 +609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -623,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -631,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -639,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -647,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -655,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -663,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -671,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -679,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -687,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -695,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -703,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -711,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -719,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -727,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -735,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -743,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -751,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -759,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -767,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -775,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -783,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -791,7 +785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -799,7 +793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -807,7 +801,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
